--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\html\flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD0A9C3-395C-4AA4-9369-94E9844EC986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C9A10B-6774-4069-8C94-8A0A76C9D565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Question</t>
   </si>
@@ -112,6 +112,66 @@
   </si>
   <si>
     <t>Tính \(\lim\limits_{x \to +\infty} \frac{x + 2^x}{x + 3^x}\)</t>
+  </si>
+  <si>
+    <t>Tính \(\lim\limits_{x \to 0} \frac{\sin 2x + \arcsin^2 x - \arctan^2 x}{3x}\)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \frac{2}{3} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \frac{1}{2}</t>
+  </si>
+  <si>
+    <t>Những VCB nào sau đây là tương đương:</t>
+  </si>
+  <si>
+    <t>\arctan x , e^x - 1 , \frac{a^x - 1}{\ln a} , \ln(1 + x)</t>
+  </si>
+  <si>
+    <t>\arcsin x , e^x , \frac{x^a - 1}{\ln x} , \ln(1 + x)</t>
+  </si>
+  <si>
+    <t>\sin x , e^x , \frac{x^a - 1}{\ln x} , \ln(x)</t>
+  </si>
+  <si>
+    <t>\cos x , e^x - 1 , \frac{a^x - 1}{\ln x} , \ln(1 + x)</t>
+  </si>
+  <si>
+    <t>x^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \frac{x^3}{2} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \frac{x^2}{2} </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Vô cùng bé nào sau đây tương đương với: \(\alpha(x) = \sin x - \tan x + x^3\)</t>
+  </si>
+  <si>
+    <t>Tính giới hạn của dãy số sau khi \(n \to \infty\): \(x_n = \frac{1}{2} \left( x_{n-1} + \frac{1}{x_{n-1}} \right), \quad x_0 &gt; 0\)</t>
+  </si>
+  <si>
+    <t>Tính giới hạn \(\lim\limits_{x \to \infty} \frac{\sqrt{x^2 + 1} + x}{x + 1}\)</t>
+  </si>
+  <si>
+    <t>Kết quả của giới hạn \(\lim\limits_{x \to 0} \frac{\sin 2x + 3 \cos x + x}{2x + \cos^2 3x}\) là:</t>
+  </si>
+  <si>
+    <t>Tính \(\lim_{x \to 2} \frac{x^2 - 4}{x - 2}\)</t>
+  </si>
+  <si>
+    <t>\infty</t>
+  </si>
+  <si>
+    <t>Tính \(\lim_{x \to 3} \frac{\sqrt{x + 1} - 2}{x - 3}\)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \frac{1}{4}</t>
   </si>
 </sst>
 </file>
@@ -170,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -178,6 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
@@ -586,7 +647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="193.85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -596,23 +657,23 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
+      <c r="D4" t="s">
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J4">
         <v>2.5</v>
@@ -643,11 +704,14 @@
       <c r="H5" t="s">
         <v>23</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="193.85" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -656,6 +720,24 @@
       </c>
       <c r="C6">
         <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
       </c>
       <c r="J6">
         <v>2.5</v>
@@ -671,6 +753,24 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
       <c r="J7">
         <v>2.5</v>
       </c>
@@ -685,6 +785,24 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
       <c r="J8">
         <v>2.5</v>
       </c>
@@ -699,6 +817,24 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
       <c r="J9">
         <v>2.5</v>
       </c>
@@ -713,6 +849,24 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
       <c r="J10">
         <v>2.5</v>
       </c>
@@ -727,6 +881,24 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
       <c r="J11">
         <v>2.5</v>
       </c>
@@ -741,6 +913,24 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
       <c r="J12">
         <v>2.5</v>
       </c>
@@ -754,6 +944,24 @@
       </c>
       <c r="C13">
         <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
       </c>
       <c r="J13">
         <v>2.5</v>
